--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F00848-0A5E-46CD-AADF-1E9590983EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08DBE4-324B-456D-8208-3E936B4B7AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -94,7 +94,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>110526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1029577" cy="289823"/>
+    <xdr:ext cx="1060611" cy="289823"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -110,8 +110,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="437979" y="292097"/>
-              <a:ext cx="1029577" cy="289823"/>
+              <a:off x="437979" y="292367"/>
+              <a:ext cx="1060611" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -138,6 +138,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -194,6 +195,12 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
                           <m:t>𝐴𝑅</m:t>
                         </m:r>
                       </m:e>
@@ -215,6 +222,12 @@
                         </m:ctrlPr>
                       </m:sSupPr>
                       <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -253,8 +266,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="437979" y="292097"/>
-              <a:ext cx="1029577" cy="289823"/>
+              <a:off x="437979" y="292367"/>
+              <a:ext cx="1060611" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -281,6 +294,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -327,7 +341,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐴𝑅</a:t>
+                <a:t> 𝐴𝑅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
@@ -348,16 +362,22 @@
                 <a:t>) </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑆</a:t>
+                <a:t> 𝑆</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^(</a:t>
+                <a:t>〗^(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -387,8 +407,8 @@
       <xdr:rowOff>989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="659283" cy="361317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -430,6 +450,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -494,7 +515,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -897,7 +918,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29603"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08DBE4-324B-456D-8208-3E936B4B7AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46270F8C-3021-40FC-95DB-FA40375C1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eq" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="alpha">Test!$C$9</definedName>
+    <definedName name="area">Test!$C$14</definedName>
+    <definedName name="b">Test!$C$4</definedName>
+    <definedName name="c_">Test!$C$12</definedName>
+    <definedName name="g">Test!$C$3</definedName>
+    <definedName name="hydraulic_depth">Test!$C$18</definedName>
+    <definedName name="hydraulic_ratio">Test!$C$16</definedName>
+    <definedName name="n">Test!$C$8</definedName>
+    <definedName name="q">Test!$C$2</definedName>
+    <definedName name="rho">Test!$C$10</definedName>
+    <definedName name="so">Test!$C$7</definedName>
+    <definedName name="top_width">Test!$C$17</definedName>
+    <definedName name="wet_perimeter">Test!$C$15</definedName>
+    <definedName name="y">Test!$C$11</definedName>
+    <definedName name="z1_">Test!$C$5</definedName>
+    <definedName name="z2_">Test!$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,15 +54,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>hydraulic_ratio</t>
+  </si>
+  <si>
+    <t>wet_perimeter</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>yc_calc</t>
+  </si>
+  <si>
+    <t>top_width</t>
+  </si>
+  <si>
+    <t>yn_calc</t>
+  </si>
+  <si>
+    <t>hydraulic_depth</t>
+  </si>
+  <si>
+    <t>froude_number</t>
+  </si>
+  <si>
+    <t>A rect</t>
+  </si>
+  <si>
+    <t>A left triangle</t>
+  </si>
+  <si>
+    <t>A right triangle</t>
+  </si>
+  <si>
+    <t>A total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,8 +202,8 @@
       <xdr:rowOff>110526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1060611" cy="289823"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -252,7 +359,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -917,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261DA7F-54BA-42EA-936B-255DBEAE6AFA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -926,4 +1033,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A500E0-8396-4378-B0AF-734AA45CB522}">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.8059999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.9689999999999995E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.0017697755933699</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <f>b*y+((y^2)/2)*(z1_+z2_)</f>
+        <v>8.005307760727284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <f>b + y * ((1 + z1_ ^ 2)^ 0.5 + (1 + z2_ ^ 2)^ 0.5)</f>
+        <v>9.4760932935312745</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <f>area/wet_perimeter</f>
+        <v>0.84478988468718408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <f>b + y * (z1_ + z2_)</f>
+        <v>2.9982302244066301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <f>area/wet_perimeter</f>
+        <v>0.84478988468718408</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <f>q-((g*area^3)/(alpha*top_width))^0.5</f>
+        <v>-30.961938840092358</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <f>q - ((c_ / n) * (area) * (hydraulic_ratio) ^ (2 / 3) * so ^ 0.5)</f>
+        <v>3.8786416549782086</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <f xml:space="preserve"> (q/area) / (g * hydraulic_depth) ^ 0.5</f>
+        <v>0.43401193271176486</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <f>b*y</f>
+        <v>10.00884887796685</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <f>y*(y*z1_)/2</f>
+        <v>-1.0017705586197827</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <f>y*(y*z2_)/2</f>
+        <v>-1.0017705586197827</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.6">
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <f>+C23+C24+C25</f>
+        <v>8.0053077607272858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,31 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46270F8C-3021-40FC-95DB-FA40375C1ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A918D6-7BB1-40BC-B530-3A50421B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
+    <workbookView xWindow="-28898" yWindow="6562" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="YnYc" sheetId="2" r:id="rId2"/>
+    <sheet name="UH" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha">Test!$C$9</definedName>
-    <definedName name="area">Test!$C$14</definedName>
-    <definedName name="b">Test!$C$4</definedName>
-    <definedName name="c_">Test!$C$12</definedName>
-    <definedName name="g">Test!$C$3</definedName>
-    <definedName name="hydraulic_depth">Test!$C$18</definedName>
-    <definedName name="hydraulic_ratio">Test!$C$16</definedName>
-    <definedName name="n">Test!$C$8</definedName>
-    <definedName name="q">Test!$C$2</definedName>
-    <definedName name="rho">Test!$C$10</definedName>
-    <definedName name="so">Test!$C$7</definedName>
-    <definedName name="top_width">Test!$C$17</definedName>
-    <definedName name="wet_perimeter">Test!$C$15</definedName>
-    <definedName name="y">Test!$C$11</definedName>
-    <definedName name="z1_">Test!$C$5</definedName>
-    <definedName name="z2_">Test!$C$6</definedName>
+    <definedName name="alpha">YnYc!$C$9</definedName>
+    <definedName name="area">YnYc!$C$14</definedName>
+    <definedName name="b">YnYc!$C$4</definedName>
+    <definedName name="c_">YnYc!$C$12</definedName>
+    <definedName name="g">YnYc!$C$3</definedName>
+    <definedName name="hydraulic_depth">YnYc!$C$18</definedName>
+    <definedName name="hydraulic_ratio">YnYc!$C$16</definedName>
+    <definedName name="hydrograph_slope_left">UH!$C$10</definedName>
+    <definedName name="hydrograph_slope_right">UH!$C$11</definedName>
+    <definedName name="n">YnYc!$C$8</definedName>
+    <definedName name="q">YnYc!$C$2</definedName>
+    <definedName name="rho">YnYc!$C$10</definedName>
+    <definedName name="so">YnYc!$C$7</definedName>
+    <definedName name="Steps">UH!$C$9</definedName>
+    <definedName name="Tb">UH!$C$5</definedName>
+    <definedName name="top_width">YnYc!$C$17</definedName>
+    <definedName name="Tp">UH!$C$8</definedName>
+    <definedName name="Tpp">UH!$C$7</definedName>
+    <definedName name="Ts">UH!$C$6</definedName>
+    <definedName name="wet_perimeter">YnYc!$C$15</definedName>
+    <definedName name="y">YnYc!$C$11</definedName>
+    <definedName name="z1_">YnYc!$C$5</definedName>
+    <definedName name="z2_">YnYc!$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Q</t>
   </si>
@@ -124,13 +132,46 @@
   </si>
   <si>
     <t>A total</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Tp, time to peak</t>
+  </si>
+  <si>
+    <t>hydrograph_slope_left</t>
+  </si>
+  <si>
+    <t>hydrograph_slope_right</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Tb, flow duration (hours)</t>
+  </si>
+  <si>
+    <t>Ts, flow time step (minutes)</t>
+  </si>
+  <si>
+    <t>Tpp, % time to peak flow discharge</t>
+  </si>
+  <si>
+    <t>Distributed flow with a triangular unitary hydrograph (UH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +191,34 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,14 +226,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +397,1153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>UH!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Distributed flow with a triangular unitary hydrograph (UH)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11537278473645429"/>
+          <c:y val="0.17420171946413979"/>
+          <c:w val="0.84539518558255633"/>
+          <c:h val="0.65741565473409036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UH!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UH!$B$13:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UH!$C$13:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1666666666666679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB71-4844-A319-CF3633C631BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728086351"/>
+        <c:axId val="728071471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728086351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>UH!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>UH!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728086351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,6 +2059,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>135916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>545856</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F70E9F-FD12-BDF4-632A-F3A6535D9F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1039,9 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A500E0-8396-4378-B0AF-734AA45CB522}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -1251,4 +2644,551 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393609A9-26C1-4636-AED4-B43ED30D49AC}">
+  <dimension ref="A2:E45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>q</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(C5/32)*60</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8">
+        <f>Tb*(Tpp/100)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <f>Tb/(Ts/60)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8">
+        <f>q/Tp</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11">
+        <f>q/(Tb-Tp)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" ref="B14:B45" si="0">B13+(Ts/60)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:C45" si="1">IF(B14&lt;=Tp,B14*hydrograph_slope_left,q-(B14-Tp)*hydrograph_slope_right)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="3">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A20" s="3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>5.8333333333333339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A22" s="3">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A23" s="3">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A24" s="3">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1666666666666679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="3">
+        <v>13</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A26" s="3">
+        <v>14</v>
+      </c>
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A28" s="3">
+        <v>16</v>
+      </c>
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A29" s="3">
+        <v>17</v>
+      </c>
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A30" s="3">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="3">
+        <v>19</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A32" s="3">
+        <v>20</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A33" s="3">
+        <v>21</v>
+      </c>
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="3">
+        <v>22</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A35" s="3">
+        <v>23</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A36" s="3">
+        <v>24</v>
+      </c>
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A37" s="3">
+        <v>25</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A38" s="3">
+        <v>26</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A39" s="3">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A40" s="3">
+        <v>28</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A41" s="3">
+        <v>29</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A42" s="3">
+        <v>30</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A43" s="3">
+        <v>31</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A44" s="3">
+        <v>32</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A45" s="3">
+        <v>33</v>
+      </c>
+      <c r="B45" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A918D6-7BB1-40BC-B530-3A50421B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A48D69-0DED-4234-BB48-49725688D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="6562" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="1" r:id="rId1"/>
@@ -1555,9 +1555,9 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>110526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1060611" cy="289823"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="1272528" cy="289823"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1572,7 +1572,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="437979" y="292367"/>
-              <a:ext cx="1060611" cy="289823"/>
+              <a:ext cx="1272528" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1656,7 +1656,14 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t> </m:t>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∙</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1692,6 +1699,19 @@
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑆</m:t>
                         </m:r>
@@ -1713,7 +1733,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1728,7 +1748,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="437979" y="292367"/>
-              <a:ext cx="1060611" cy="289823"/>
+              <a:ext cx="1272528" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1802,7 +1822,20 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> 𝐴𝑅</a:t>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝑅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
@@ -1827,6 +1860,19 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1862,14 +1908,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>405832</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>989</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74623</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124381</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="659283" cy="361317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="764248" cy="361317"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1883,8 +1929,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="405832" y="728353"/>
-              <a:ext cx="659283" cy="361317"/>
+              <a:off x="2016424" y="306222"/>
+              <a:ext cx="764248" cy="361317"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1962,7 +2008,20 @@
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>𝑔𝐷</m:t>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∙</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐷</m:t>
                             </m:r>
                           </m:e>
                         </m:rad>
@@ -1976,7 +2035,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1990,8 +2049,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="405832" y="728353"/>
-              <a:ext cx="659283" cy="361317"/>
+              <a:off x="2016424" y="306222"/>
+              <a:ext cx="764248" cy="361317"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2018,6 +2077,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2040,15 +2100,1138 @@
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>/√</a:t>
+                <a:t>/√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑔𝐷</a:t>
+                <a:t>𝑔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552017</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82262</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="395045" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47359C2-3B22-4DB1-B9FB-2A090F02D38C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="552017" y="1355148"/>
+              <a:ext cx="395045" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47359C2-3B22-4DB1-B9FB-2A090F02D38C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="552017" y="1355148"/>
+              <a:ext cx="395045" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78798</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="402546" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AD8BEF-57CC-9F3E-2ADA-A1698F2329CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1133042" y="1351684"/>
+              <a:ext cx="402546" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AD8BEF-57CC-9F3E-2ADA-A1698F2329CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1133042" y="1351684"/>
+              <a:ext cx="402546" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480146</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86158</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303994" cy="240387"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FDAF0B-BBEB-1540-C51D-5292D6E33460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1774680" y="1359044"/>
+              <a:ext cx="303994" cy="240387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>v</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="es-CO" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-CO" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑄</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FDAF0B-BBEB-1540-C51D-5292D6E33460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1774680" y="1359044"/>
+              <a:ext cx="303994" cy="240387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>v</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89189</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1245919" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4447B4A3-F523-DE40-DB8F-E2B1DC8D1278}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2455285" y="1362075"/>
+              <a:ext cx="1245919" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100"/>
+                <a:t>τ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="hy-AM" sz="1100" baseline="-25000"/>
+                <a:t>օ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="es-CO" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> ∙ </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑅</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> ∙ </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑆𝑜</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4447B4A3-F523-DE40-DB8F-E2B1DC8D1278}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2455285" y="1362075"/>
+              <a:ext cx="1245919" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100"/>
+                <a:t>τ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="hy-AM" sz="1100" baseline="-25000"/>
+                <a:t>օ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑔 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑅 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑆𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>620423</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139845</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1438279" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA9E1CF-8807-512D-42E9-93020841F49C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="620423" y="1958254"/>
+              <a:ext cx="1438279" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t>F </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="es-CO" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑐𝑒𝑛𝑡𝑟𝑜𝑖𝑑</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> ∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐴</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA9E1CF-8807-512D-42E9-93020841F49C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="620423" y="1958254"/>
+              <a:ext cx="1438279" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t>F </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐𝑒𝑛𝑡𝑟𝑜𝑖𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝜌</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑔 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2419,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261DA7F-54BA-42EA-936B-255DBEAE6AFA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2650,7 +3833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393609A9-26C1-4636-AED4-B43ED30D49AC}">
   <dimension ref="A2:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A48D69-0DED-4234-BB48-49725688D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD279B38-0F4C-46F3-8B16-A15385E52865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -1555,7 +1555,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>110526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1272528" cy="289823"/>
+    <xdr:ext cx="1152174" cy="289823"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1572,7 +1572,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="437979" y="292367"/>
-              <a:ext cx="1272528" cy="289823"/>
+              <a:ext cx="1152174" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1656,7 +1656,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>  </m:t>
+                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1669,7 +1669,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝐴𝑅</m:t>
+                          <m:t>𝑅</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -1693,21 +1693,9 @@
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>∙</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1748,7 +1736,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="437979" y="292367"/>
-              <a:ext cx="1272528" cy="289823"/>
+              <a:ext cx="1152174" cy="289823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1822,7 +1810,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>  </a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1835,7 +1823,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐴𝑅</a:t>
+                <a:t>𝑅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
@@ -1864,21 +1852,15 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∙</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> 𝑆</a:t>
+                </a:rPr>
+                <a:t>𝑆</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
@@ -2138,9 +2120,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552017</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82262</xdr:rowOff>
+      <xdr:colOff>413471</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127722</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="395045" cy="316882"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2158,7 +2140,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="552017" y="1355148"/>
+              <a:off x="413471" y="855086"/>
               <a:ext cx="395045" cy="316882"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2252,7 +2234,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="552017" y="1355148"/>
+              <a:off x="413471" y="855086"/>
               <a:ext cx="395045" cy="316882"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2322,9 +2304,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78798</xdr:rowOff>
+      <xdr:colOff>347229</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124258</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="402546" cy="316882"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2342,7 +2324,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1133042" y="1351684"/>
+              <a:off x="994496" y="851622"/>
               <a:ext cx="402546" cy="316882"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2436,7 +2418,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1133042" y="1351684"/>
+              <a:off x="994496" y="851622"/>
               <a:ext cx="402546" cy="316882"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2506,9 +2488,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480146</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>86158</xdr:rowOff>
+      <xdr:colOff>341600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="303994" cy="240387"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2526,7 +2508,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1774680" y="1359044"/>
+              <a:off x="1636134" y="858982"/>
               <a:ext cx="303994" cy="240387"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2617,7 +2599,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1774680" y="1359044"/>
+              <a:off x="1636134" y="858982"/>
               <a:ext cx="303994" cy="240387"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2689,9 +2671,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>513484</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>89189</xdr:rowOff>
+      <xdr:colOff>374938</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134649</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1245919" cy="173766"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2709,7 +2691,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2455285" y="1362075"/>
+              <a:off x="2316739" y="862013"/>
               <a:ext cx="1245919" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2843,7 +2825,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2455285" y="1362075"/>
+              <a:off x="2316739" y="862013"/>
               <a:ext cx="1245919" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2967,9 +2949,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>620423</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>139845</xdr:rowOff>
+      <xdr:colOff>481877</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3465</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1438279" cy="173766"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2987,7 +2969,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="620423" y="1958254"/>
+              <a:off x="481877" y="1458192"/>
               <a:ext cx="1438279" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3126,7 +3108,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="620423" y="1958254"/>
+              <a:off x="481877" y="1458192"/>
               <a:ext cx="1438279" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3232,6 +3214,511 @@
                 <a:rPr lang="es-CO" sz="1100"/>
                 <a:t> </a:t>
               </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>271028</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32905</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1377229" cy="358881"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CEB4CB-3CA4-D1B9-28BF-FDEA11357994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2212829" y="1305791"/>
+              <a:ext cx="1377229" cy="358881"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:f>
+                          <m:fPr>
+                            <m:type m:val="lin"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-CO" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑃</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑇</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∙ </m:t>
+                        </m:r>
+                        <m:rad>
+                          <m:radPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:deg>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑐</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CEB4CB-3CA4-D1B9-28BF-FDEA11357994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2212829" y="1305791"/>
+              <a:ext cx="1377229" cy="358881"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙𝑛^2∙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙ √(3&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3603,7 +4090,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD279B38-0F4C-46F3-8B16-A15385E52865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F2B037-8205-4C4C-B221-894BE32F99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
       <xdr:rowOff>110526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1152174" cy="289823"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1721,7 +1721,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1896,8 +1896,8 @@
       <xdr:rowOff>124381</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="764248" cy="361317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2017,7 +2017,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2125,8 +2125,8 @@
       <xdr:rowOff>127722</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="395045" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2220,7 +2220,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2309,8 +2309,8 @@
       <xdr:rowOff>124258</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="402546" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2404,7 +2404,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2493,8 +2493,98 @@
       <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="303994" cy="240387"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FDAF0B-BBEB-1540-C51D-5292D6E33460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1636134" y="858982"/>
+              <a:ext cx="303994" cy="240387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>v</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="es-CO" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-CO" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑄</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2545,53 +2635,54 @@
                 <a:rPr lang="es-CO" sz="1100" baseline="0"/>
                 <a:t> </a:t>
               </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="es-CO" sz="1100" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="es-CO" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑄</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐴</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴</a:t>
+              </a:r>
               <a:endParaRPr lang="es-CO" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374938</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134649</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1059714" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
+            <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FDAF0B-BBEB-1540-C51D-5292D6E33460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4447B4A3-F523-DE40-DB8F-E2B1DC8D1278}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2599,8 +2690,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1636134" y="858982"/>
-              <a:ext cx="303994" cy="240387"/>
+              <a:off x="2316739" y="862013"/>
+              <a:ext cx="1059714" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2627,57 +2718,86 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>v</a:t>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100"/>
+                <a:t>τ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="hy-AM" sz="1100" baseline="-25000"/>
+                <a:t>օ</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" baseline="0"/>
                 <a:t> </a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑄</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐴</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100"/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="es-CO" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑔</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑅</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>∙</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑆𝑜</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>374938</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>134649</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1245919" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      </mc:Choice>
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2692,7 +2812,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2316739" y="862013"/>
-              <a:ext cx="1245919" cy="173766"/>
+              <a:ext cx="1059714" cy="173766"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2719,7 +2839,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="el-GR" sz="1100"/>
                 <a:t>τ</a:t>
@@ -2732,208 +2851,36 @@
                 <a:rPr lang="es-CO" sz="1100" baseline="0"/>
                 <a:t> </a:t>
               </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="es-CO" sz="1100" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝜌</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>∙</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="el-GR" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑔</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> ∙ </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑅</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t> ∙ </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑆𝑜</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4447B4A3-F523-DE40-DB8F-E2B1DC8D1278}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2316739" y="862013"/>
-              <a:ext cx="1245919" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100"/>
-                <a:t>τ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="hy-AM" sz="1100" baseline="-25000"/>
-                <a:t>օ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜌</a:t>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∙</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∙</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑔 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∙</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> 𝑅 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∙</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> 𝑆𝑜</a:t>
+                <a:t>𝑔∙𝑅∙𝑆𝑜</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100"/>
@@ -2954,8 +2901,8 @@
       <xdr:rowOff>3465</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1438279" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2997,7 +2944,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" baseline="0"/>
                 <a:t>F </a:t>
@@ -3094,7 +3040,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3228,7 +3174,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>32905</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1377229" cy="358881"/>
+    <xdr:ext cx="1377229" cy="434686"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -3245,7 +3191,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2212829" y="1305791"/>
-              <a:ext cx="1377229" cy="358881"/>
+              <a:ext cx="1377229" cy="434686"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3268,7 +3214,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -3370,7 +3316,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3382,7 +3328,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3396,7 +3342,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3408,7 +3354,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3475,7 +3421,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3487,7 +3433,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3520,7 +3466,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2212829" y="1305791"/>
-              <a:ext cx="1377229" cy="358881"/>
+              <a:ext cx="1377229" cy="434686"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3543,7 +3489,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -3591,7 +3537,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3603,7 +3549,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3627,7 +3573,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3639,7 +3585,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3668,7 +3614,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∙ √(3&amp;</a:t>
+                <a:t>∙ ∛</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -3676,7 +3622,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3688,23 +3634,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑐</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0" baseline="-25000">
@@ -3713,7 +3647,7 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>)</a:t>
@@ -4090,7 +4024,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F2B037-8205-4C4C-B221-894BE32F99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0EA2AF-B177-40CC-B08E-DACCB6309F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -2880,7 +2880,13 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑔∙𝑅∙𝑆𝑜</a:t>
+                <a:t>𝑔∙𝑅∙𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100"/>
@@ -3175,8 +3181,8 @@
       <xdr:rowOff>32905</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1377229" cy="434686"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3451,7 +3457,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -4024,7 +4030,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0EA2AF-B177-40CC-B08E-DACCB6309F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B690C1-847E-4A58-8127-C80F2DB5A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -2675,8 +2675,8 @@
       <xdr:rowOff>134649</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1059714" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2797,7 +2797,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3655,6 +3655,220 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340735</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113434</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1703095" cy="380134"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0461EEC6-2E23-BD68-A69A-DA95EF10CD6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2929803" y="295275"/>
+              <a:ext cx="1703095" cy="380134"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐹𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-CO" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼𝑛𝑒𝑟𝑡𝑖𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹𝑜𝑟𝑐𝑒𝑠</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐺𝑟𝑎𝑣𝑖𝑡𝑎𝑡𝑖𝑜𝑛𝑎𝑙</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹𝑜𝑟𝑐𝑒𝑠</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0461EEC6-2E23-BD68-A69A-DA95EF10CD6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2929803" y="295275"/>
+              <a:ext cx="1703095" cy="380134"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐹𝑟</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐼𝑛𝑒𝑟𝑡𝑖𝑎𝑙 𝐹𝑜𝑟𝑐𝑒𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐺𝑟𝑎𝑣𝑖𝑡𝑎𝑡𝑖𝑜𝑛𝑎𝑙 𝐹𝑜𝑟𝑐𝑒𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
@@ -4030,7 +4244,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B690C1-847E-4A58-8127-C80F2DB5A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF5BA1-C60B-4EF6-929C-8C4726E63C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -958,6 +957,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1895,9 +1895,9 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>124381</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="764248" cy="361317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="764247" cy="387991"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1911,8 +1911,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2016424" y="306222"/>
-              <a:ext cx="764248" cy="361317"/>
+              <a:off x="1903423" y="307954"/>
+              <a:ext cx="764247" cy="387991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1971,7 +1971,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝑣</m:t>
+                          <m:t>𝑉</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -2017,7 +2017,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2031,8 +2031,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2016424" y="306222"/>
-              <a:ext cx="764248" cy="361317"/>
+              <a:off x="1903423" y="307954"/>
+              <a:ext cx="764247" cy="387991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2076,7 +2076,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑣</a:t>
+                <a:t>𝑉</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="0" i="0">
@@ -3674,8 +3674,8 @@
       <xdr:rowOff>113434</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1703095" cy="380134"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3793,7 +3793,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4244,10 +4244,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4260,16 +4260,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.53125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>9.8059999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>8.9689999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>2.0017697755933699</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>8.005307760727284</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>9.4760932935312745</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.84478988468718408</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2.9982302244066301</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0.84478988468718408</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>-30.961938840092358</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>3.8786416549782086</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0.43401193271176486</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>10.00884887796685</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>-1.0017705586197827</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>-1.0017705586197827</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
@@ -4479,22 +4479,22 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.46484375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>31</v>
@@ -4532,7 +4532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>7</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>5.8333333333333339</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>9</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>10</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>11</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>12</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>9.1666666666666679</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>13</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>14</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>15</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>16</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>17</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>18</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>19</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>20</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>21</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>22</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>23</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>24</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>25</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>26</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>27</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>28</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>29</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>30</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>31</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>32</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>33</v>
       </c>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF5BA1-C60B-4EF6-929C-8C4726E63C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A10D1-6595-4776-AB5A-D806F8B09FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="1" r:id="rId1"/>
     <sheet name="YnYc" sheetId="2" r:id="rId2"/>
-    <sheet name="UH" sheetId="3" r:id="rId3"/>
+    <sheet name="UHv1" sheetId="3" r:id="rId3"/>
+    <sheet name="UHv2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="alpha">YnYc!$C$9</definedName>
@@ -25,18 +27,29 @@
     <definedName name="g">YnYc!$C$3</definedName>
     <definedName name="hydraulic_depth">YnYc!$C$18</definedName>
     <definedName name="hydraulic_ratio">YnYc!$C$16</definedName>
-    <definedName name="hydrograph_slope_left">UH!$C$10</definedName>
-    <definedName name="hydrograph_slope_right">UH!$C$11</definedName>
+    <definedName name="hydrograph_slope_left" localSheetId="3">'UHv2'!$C$10</definedName>
+    <definedName name="hydrograph_slope_left">'UHv1'!$C$10</definedName>
+    <definedName name="hydrograph_slope_right" localSheetId="3">'UHv2'!$C$11</definedName>
+    <definedName name="hydrograph_slope_right">'UHv1'!$C$11</definedName>
     <definedName name="n">YnYc!$C$8</definedName>
     <definedName name="q">YnYc!$C$2</definedName>
     <definedName name="rho">YnYc!$C$10</definedName>
     <definedName name="so">YnYc!$C$7</definedName>
-    <definedName name="Steps">UH!$C$9</definedName>
-    <definedName name="Tb">UH!$C$5</definedName>
+    <definedName name="Steps" localSheetId="3">'UHv2'!$C$9</definedName>
+    <definedName name="Steps">'UHv1'!$C$9</definedName>
+    <definedName name="steps_left">'UHv2'!$E$9</definedName>
+    <definedName name="steps_right">'UHv2'!$F$9</definedName>
+    <definedName name="Tb" localSheetId="3">'UHv2'!$C$5</definedName>
+    <definedName name="Tb">'UHv1'!$C$5</definedName>
+    <definedName name="time_increment_left">'UHv2'!$E$10</definedName>
+    <definedName name="time_increment_right">'UHv2'!$F$10</definedName>
     <definedName name="top_width">YnYc!$C$17</definedName>
-    <definedName name="Tp">UH!$C$8</definedName>
-    <definedName name="Tpp">UH!$C$7</definedName>
-    <definedName name="Ts">UH!$C$6</definedName>
+    <definedName name="Tp" localSheetId="3">'UHv2'!$C$8</definedName>
+    <definedName name="Tp">'UHv1'!$C$8</definedName>
+    <definedName name="Tpp" localSheetId="3">'UHv2'!$C$7</definedName>
+    <definedName name="Tpp">'UHv1'!$C$7</definedName>
+    <definedName name="Ts" localSheetId="3">'UHv2'!$C$6</definedName>
+    <definedName name="Ts">'UHv1'!$C$6</definedName>
     <definedName name="wet_perimeter">YnYc!$C$15</definedName>
     <definedName name="y">YnYc!$C$11</definedName>
     <definedName name="z1_">YnYc!$C$5</definedName>
@@ -63,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Q</t>
   </si>
@@ -134,9 +147,6 @@
     <t>A total</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -165,6 +175,43 @@
   </si>
   <si>
     <t>Distributed flow with a triangular unitary hydrograph (UH)</t>
+  </si>
+  <si>
+    <t>Time (hr)</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t># Distributed flow with a triangular unitary hydrograph (UH) for HEC-RAS
+def distributed_flow(q, tb, ts, tpp, units, dp):
+    tp = tb*tpp/100 # time to peak in hours
+    steps = int(tb/(ts/60)) # time steps
+    hydrograph_slope_left = q/tp
+    hydrograph_slope_right = q/(tb-tp)
+    hydrograph_table = f'● Distributed flow with a triangular unitary hydrograph (UH)\n'
+    hydrograph_table += f'Time to peak: {tp} hr\n\n'
+    hydrograph_table += f'Step, Time (hr), Flow ({units['q']})\n'
+    for i in range (steps+1):
+        tsa = ts*i/60 # progressive time step
+        if tsa &lt;= tp:
+            qt = ts*i/60 * hydrograph_slope_left
+        else:
+            qt = q - (tsa - tp) * hydrograph_slope_right
+        hydrograph_table += f'{i}, {round(tsa, dp)}, {round(qt, dp)}\n'
+    return  hydrograph_table</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time (hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flow (m³/s)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -288,21 +335,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
@@ -346,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,17 +392,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +410,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +460,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>UH!$B$2</c:f>
+          <c:f>'UHv1'!$B$2</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -461,9 +505,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11537278473645429"/>
+          <c:x val="0.11285209401585562"/>
           <c:y val="0.17420171946413979"/>
-          <c:w val="0.84539518558255633"/>
+          <c:w val="0.84791594799268155"/>
           <c:h val="0.65741565473409036"/>
         </c:manualLayout>
       </c:layout>
@@ -475,7 +519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>UH!$C$12</c:f>
+              <c:f>'UHv1'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +554,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UH!$B$13:$B$45</c:f>
+              <c:f>'UHv1'!$B$13:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -518,107 +562,107 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>0.58333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>0.83333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>1.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>1.5833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2.25</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.75</c:v>
+                  <c:v>2.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UH!$C$13:$C$45</c:f>
+              <c:f>'UHv1'!$C$13:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -626,100 +670,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>2.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>4.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>8.8888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>9.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8333333333333339</c:v>
+                  <c:v>6.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>5.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>2.6666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1666666666666679</c:v>
+                  <c:v>1.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5</c:v>
+                  <c:v>-1.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>-2.6666666666666643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>-5.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5</c:v>
+                  <c:v>-6.6666666666666643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5</c:v>
+                  <c:v>-9.3333333333333321</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>-10.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>-13.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5</c:v>
+                  <c:v>-14.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5</c:v>
+                  <c:v>-17.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>-18.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>-21.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5</c:v>
+                  <c:v>-22.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5</c:v>
+                  <c:v>-25.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-26.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,11 +809,11 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>UH!$B$12</c:f>
+              <c:f>'UHv1'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>Time (hr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -845,6 +889,7 @@
         <c:axId val="728071471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -864,7 +909,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>UH!$C$12</c:f>
+              <c:f>'UHv1'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -950,6 +995,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -957,7 +1003,1570 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'UHv2'!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Distributed flow with a triangular unitary hydrograph (UH)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11285209401585562"/>
+          <c:y val="0.17420171946413979"/>
+          <c:w val="0.84791594799268155"/>
+          <c:h val="0.65741565473409036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UHv2'!$B$13:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5535714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73214285714285721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91071428571428581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0892857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1785714285714284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2678571428571426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.446428571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5357142857142851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8035714285714277</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8928571428571419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9821428571428561</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1607142857142847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3392857142857135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4285714285714279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5178571428571423</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6071428571428568</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6964285714285712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7857142857142856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UHv2'!$C$13:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>8.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>4.2857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.8571428571428559</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>-1.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>-2.8571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>-4.2857142857142811</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>-5.7142857142857082</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>-7.1428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>-8.5714285714285623</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>-9.9999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>-11.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>-12.857142857142843</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>-14.28571428571427</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>-15.714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>-17.142857142857125</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>-18.571428571428555</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>-19.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>-21.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>-22.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>-24.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>-25.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>-27.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>-28.571428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BAC-48C7-B696-DF9CB416B007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728086351"/>
+        <c:axId val="728071471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728086351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (hr)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728086351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Flow (m³/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54DE-4291-A25C-B2C76E57FA09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1371135216"/>
+        <c:axId val="159818496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1371135216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159818496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="159818496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371135216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'UHv2'!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Distributed flow with a triangular unitary hydrograph (UH)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11285209401585562"/>
+          <c:y val="0.17420171946413979"/>
+          <c:w val="0.84791594799268155"/>
+          <c:h val="0.65741565473409036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UHv2'!$B$13:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5535714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73214285714285721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82142857142857151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91071428571428581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0892857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1785714285714284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2678571428571426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.446428571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5357142857142851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8035714285714277</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8928571428571419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9821428571428561</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0714285714285703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1607142857142847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3392857142857135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4285714285714279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5178571428571423</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6071428571428568</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6964285714285712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7857142857142856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UHv2'!$C$13:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>8.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>4.2857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.8571428571428559</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>1.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>-1.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>-2.8571428571428541</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>-4.2857142857142811</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>-5.7142857142857082</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>-7.1428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>-8.5714285714285623</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>-9.9999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>-11.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>-12.857142857142843</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>-14.28571428571427</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>-15.714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>-17.142857142857125</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>-18.571428571428555</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>-19.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>-21.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>-22.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>-24.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>-25.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>-27.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>-28.571428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3699-42AE-B16A-1C79BC1346C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="728086351"/>
+        <c:axId val="728071471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="728086351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (hr)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="728071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UHv2'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728086351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1030,7 +2639,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1896,8 +5173,8 @@
       <xdr:rowOff>124381</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="764247" cy="387991"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2017,7 +5294,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3888,15 +7165,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>87924</xdr:colOff>
+      <xdr:colOff>162468</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>135916</xdr:rowOff>
+      <xdr:rowOff>119351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>545856</xdr:colOff>
+      <xdr:colOff>620400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>98914</xdr:rowOff>
+      <xdr:rowOff>82349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3916,6 +7193,128 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>497913</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301518</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE02A94D-A2FC-4E9F-B0B3-C95F2FDA176E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73818</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111918</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77594262-03EE-9191-C289-42A8E2C4A7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>596873</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71707</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50191D9-0180-43BD-9E01-44C6BC70CED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4243,11 +7642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E261DA7F-54BA-42EA-936B-255DBEAE6AFA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4260,16 +7659,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +7676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +7684,7 @@
         <v>9.8059999999999992</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +7692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +7700,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +7708,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +7716,7 @@
         <v>8.9689999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4325,7 +7724,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4341,7 +7740,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +7748,7 @@
         <v>2.0017697755933699</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -4357,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +7765,7 @@
         <v>8.005307760727284</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4375,7 +7774,7 @@
         <v>9.4760932935312745</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4384,7 +7783,7 @@
         <v>0.84478988468718408</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +7792,7 @@
         <v>2.9982302244066301</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4402,7 +7801,7 @@
         <v>0.84478988468718408</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +7810,7 @@
         <v>-30.961938840092358</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -4420,7 +7819,7 @@
         <v>3.8786416549782086</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +7828,7 @@
         <v>0.43401193271176486</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4438,7 +7837,7 @@
         <v>10.00884887796685</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
@@ -4447,7 +7846,7 @@
         <v>-1.0017705586197827</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
@@ -4456,7 +7855,7 @@
         <v>-1.0017705586197827</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
@@ -4472,37 +7871,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393609A9-26C1-4636-AED4-B43ED30D49AC}">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:R45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.53125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="16"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -4510,83 +7922,718 @@
         <f>q</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17">
+        <f>(C5/32)*60</f>
+        <v>1.875</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="B7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="7">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16">
-        <f>(C5/32)*60</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7" s="17">
+        <f>Tb*Tpp/100</f>
+        <v>0.375</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8">
         <f>Tb*(Tpp/100)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.375</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
         <f>Tb/(Ts/60)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8">
         <f>q/Tp</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="B11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="11">
         <f>q/(Tb-Tp)</f>
+        <v>16</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
+        <f>(Ts/60)*A13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <f>(Ts/60)*A14</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:C45" si="0">IF(B14&lt;=Tp,B14*hydrograph_slope_left,q-(B14-Tp)*hydrograph_slope_right)</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B15" s="12">
+        <f>(Ts/60)*A15</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <f>(Ts/60)*A16</f>
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <f>(Ts/60)*A17</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12">
+        <f>(Ts/60)*A18</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12">
+        <f>(Ts/60)*A19</f>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12">
+        <f>(Ts/60)*A20</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12">
+        <f>(Ts/60)*A21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12">
+        <f>(Ts/60)*A22</f>
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12">
+        <f>(Ts/60)*A23</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12">
+        <f>(Ts/60)*A24</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="3">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12">
+        <f>(Ts/60)*A25</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12">
+        <f>(Ts/60)*A26</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.3333333333333321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12">
+        <f>(Ts/60)*A27</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.6666666666666643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12">
+        <f>(Ts/60)*A28</f>
+        <v>1.25</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12">
+        <f>(Ts/60)*A29</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.3333333333333321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12">
+        <f>(Ts/60)*A30</f>
+        <v>1.4166666666666665</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666666643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12">
+        <f>(Ts/60)*A31</f>
+        <v>1.5</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12">
+        <f>(Ts/60)*A32</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.3333333333333321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12">
+        <f>(Ts/60)*A33</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="0"/>
+        <v>-10.666666666666664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="3">
+        <v>21</v>
+      </c>
+      <c r="B34" s="12">
+        <f>(Ts/60)*A34</f>
+        <v>1.75</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A35" s="3">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12">
+        <f>(Ts/60)*A35</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="0"/>
+        <v>-13.333333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A36" s="3">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="B36" s="12">
+        <f>(Ts/60)*A36</f>
+        <v>1.9166666666666665</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="0"/>
+        <v>-14.666666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A37" s="3">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12">
+        <f>(Ts/60)*A37</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A38" s="3">
+        <v>25</v>
+      </c>
+      <c r="B38" s="12">
+        <f>(Ts/60)*A38</f>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="0"/>
+        <v>-17.333333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A39" s="3">
+        <v>26</v>
+      </c>
+      <c r="B39" s="12">
+        <f>(Ts/60)*A39</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="0"/>
+        <v>-18.666666666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A40" s="3">
+        <v>27</v>
+      </c>
+      <c r="B40" s="12">
+        <f>(Ts/60)*A40</f>
+        <v>2.25</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A41" s="3">
+        <v>28</v>
+      </c>
+      <c r="B41" s="12">
+        <f>(Ts/60)*A41</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>-21.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A42" s="3">
+        <v>29</v>
+      </c>
+      <c r="B42" s="12">
+        <f>(Ts/60)*A42</f>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="0"/>
+        <v>-22.666666666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A43" s="3">
+        <v>30</v>
+      </c>
+      <c r="B43" s="12">
+        <f>(Ts/60)*A43</f>
+        <v>2.5</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A44" s="3">
+        <v>31</v>
+      </c>
+      <c r="B44" s="12">
+        <f>(Ts/60)*A44</f>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="0"/>
+        <v>-25.333333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A45" s="3">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12">
+        <f>(Ts/60)*A45</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" si="0"/>
+        <v>-26.666666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEE3D0-994B-4C89-94A4-6A2E1381708C}">
+  <dimension ref="A2:G45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.53125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="16"/>
+    <col min="7" max="7" width="4.53125" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4" s="7">
+        <f>q</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17">
+        <f>(C5/32)*60</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="E7" s="17">
+        <f>Tb*Tpp/100</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <f>Tb*(Tpp/100)</f>
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <f>Tb/(Ts/60)</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <f>ROUND(Steps*Tpp/100,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <f>Steps-steps_left</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <f>q/Tp</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="E10" s="16">
+        <f>(Tb*Tpp/100)/steps_left</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <f>(Tb*(1-Tpp/100))/steps_right</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11">
+        <f>q/(Tb-Tp)</f>
+        <v>16</v>
+      </c>
+      <c r="E11" s="16">
+        <f>E9*E10</f>
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="16">
+        <f>F9*F10</f>
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="16">
+        <f>+F11+E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -4595,419 +8642,667 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <f>IF(A14&lt;=steps_left,B13+time_increment_left,B13+time_increment_right)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:C45" si="0">IF(B14&lt;=Tp,B14*hydrograph_slope_left,q-(B14-Tp)*hydrograph_slope_right)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="12">
-        <f t="shared" ref="B14:B45" si="0">B13+(Ts/60)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:C45" si="1">IF(B14&lt;=Tp,B14*hydrograph_slope_left,q-(B14-Tp)*hydrograph_slope_right)</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>IF(A15&lt;=steps_left,B14+time_increment_left,B14+time_increment_right)</f>
+        <v>0.15</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>7</v>
-      </c>
-      <c r="B19" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="1"/>
-        <v>5.8333333333333339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>9</v>
-      </c>
-      <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>10</v>
-      </c>
-      <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>11</v>
-      </c>
-      <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>12</v>
-      </c>
-      <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="1"/>
-        <v>9.1666666666666679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>13</v>
-      </c>
-      <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>14</v>
-      </c>
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>15</v>
-      </c>
-      <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>16</v>
-      </c>
-      <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>17</v>
-      </c>
-      <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C29" s="8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>18</v>
-      </c>
-      <c r="B30" s="12">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>19</v>
-      </c>
-      <c r="B31" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>20</v>
-      </c>
-      <c r="B32" s="12">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>21</v>
-      </c>
-      <c r="B33" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C33" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>22</v>
-      </c>
-      <c r="B34" s="12">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>23</v>
-      </c>
-      <c r="B35" s="12">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>24</v>
-      </c>
-      <c r="B36" s="12">
-        <f t="shared" si="0"/>
-        <v>5.75</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>25</v>
-      </c>
-      <c r="B37" s="12">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <f>IF(A16&lt;=steps_left,B15+time_increment_left,B15+time_increment_right)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C37" s="8">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
-        <v>26</v>
-      </c>
-      <c r="B38" s="12">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="C38" s="8">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
-        <v>27</v>
-      </c>
-      <c r="B39" s="12">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="C39" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
-        <v>28</v>
-      </c>
-      <c r="B40" s="12">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="C40" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
-        <v>29</v>
-      </c>
-      <c r="B41" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C41" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
-        <v>30</v>
-      </c>
-      <c r="B42" s="12">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
-        <v>31</v>
-      </c>
-      <c r="B43" s="12">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
-        <v>32</v>
-      </c>
-      <c r="B44" s="12">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="C44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
-        <v>33</v>
-      </c>
-      <c r="B45" s="13">
+      <c r="B17" s="12">
+        <f>IF(A17&lt;=steps_left,B16+time_increment_left,B16+time_increment_right)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C45" s="9">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12">
+        <f>IF(A18&lt;=steps_left,B17+time_increment_left,B17+time_increment_right)</f>
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12">
+        <f>IF(A19&lt;=steps_left,B18+time_increment_left,B18+time_increment_right)</f>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12">
+        <f>IF(A20&lt;=steps_left,B19+time_increment_left,B19+time_increment_right)</f>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12">
+        <f>IF(A21&lt;=steps_left,B20+time_increment_left,B20+time_increment_right)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12">
+        <f>IF(A22&lt;=steps_left,B21+time_increment_left,B21+time_increment_right)</f>
+        <v>0.73214285714285721</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12">
+        <f>IF(A23&lt;=steps_left,B22+time_increment_left,B22+time_increment_right)</f>
+        <v>0.82142857142857151</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12">
+        <f>IF(A24&lt;=steps_left,B23+time_increment_left,B23+time_increment_right)</f>
+        <v>0.91071428571428581</v>
+      </c>
+      <c r="C24" s="18">
+        <f t="shared" si="0"/>
+        <v>1.428571428571427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="3">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12">
+        <f>IF(A25&lt;=steps_left,B24+time_increment_left,B24+time_increment_right)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12">
+        <f>IF(A26&lt;=steps_left,B25+time_increment_left,B25+time_increment_right)</f>
+        <v>1.0892857142857142</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" si="0"/>
+        <v>-1.428571428571427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12">
+        <f>IF(A27&lt;=steps_left,B26+time_increment_left,B26+time_increment_right)</f>
+        <v>1.1785714285714284</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="0"/>
+        <v>-2.8571428571428541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12">
+        <f>IF(A28&lt;=steps_left,B27+time_increment_left,B27+time_increment_right)</f>
+        <v>1.2678571428571426</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="0"/>
+        <v>-4.2857142857142811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12">
+        <f>IF(A29&lt;=steps_left,B28+time_increment_left,B28+time_increment_right)</f>
+        <v>1.3571428571428568</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="0"/>
+        <v>-5.7142857142857082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12">
+        <f>IF(A30&lt;=steps_left,B29+time_increment_left,B29+time_increment_right)</f>
+        <v>1.446428571428571</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" si="0"/>
+        <v>-7.1428571428571352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12">
+        <f>IF(A31&lt;=steps_left,B30+time_increment_left,B30+time_increment_right)</f>
+        <v>1.5357142857142851</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" si="0"/>
+        <v>-8.5714285714285623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12">
+        <f>IF(A32&lt;=steps_left,B31+time_increment_left,B31+time_increment_right)</f>
+        <v>1.6249999999999993</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12">
+        <f>IF(A33&lt;=steps_left,B32+time_increment_left,B32+time_increment_right)</f>
+        <v>1.7142857142857135</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" si="0"/>
+        <v>-11.428571428571416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="3">
+        <v>21</v>
+      </c>
+      <c r="B34" s="12">
+        <f>IF(A34&lt;=steps_left,B33+time_increment_left,B33+time_increment_right)</f>
+        <v>1.8035714285714277</v>
+      </c>
+      <c r="C34" s="18">
+        <f t="shared" si="0"/>
+        <v>-12.857142857142843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A35" s="3">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12">
+        <f>IF(A35&lt;=steps_left,B34+time_increment_left,B34+time_increment_right)</f>
+        <v>1.8928571428571419</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" si="0"/>
+        <v>-14.28571428571427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A36" s="3">
+        <v>23</v>
+      </c>
+      <c r="B36" s="12">
+        <f>IF(A36&lt;=steps_left,B35+time_increment_left,B35+time_increment_right)</f>
+        <v>1.9821428571428561</v>
+      </c>
+      <c r="C36" s="18">
+        <f t="shared" si="0"/>
+        <v>-15.714285714285698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A37" s="3">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12">
+        <f>IF(A37&lt;=steps_left,B36+time_increment_left,B36+time_increment_right)</f>
+        <v>2.0714285714285703</v>
+      </c>
+      <c r="C37" s="18">
+        <f t="shared" si="0"/>
+        <v>-17.142857142857125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A38" s="3">
+        <v>25</v>
+      </c>
+      <c r="B38" s="12">
+        <f>IF(A38&lt;=steps_left,B37+time_increment_left,B37+time_increment_right)</f>
+        <v>2.1607142857142847</v>
+      </c>
+      <c r="C38" s="18">
+        <f t="shared" si="0"/>
+        <v>-18.571428571428555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A39" s="3">
+        <v>26</v>
+      </c>
+      <c r="B39" s="12">
+        <f>IF(A39&lt;=steps_left,B38+time_increment_left,B38+time_increment_right)</f>
+        <v>2.2499999999999991</v>
+      </c>
+      <c r="C39" s="18">
+        <f t="shared" si="0"/>
+        <v>-19.999999999999986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A40" s="3">
+        <v>27</v>
+      </c>
+      <c r="B40" s="12">
+        <f>IF(A40&lt;=steps_left,B39+time_increment_left,B39+time_increment_right)</f>
+        <v>2.3392857142857135</v>
+      </c>
+      <c r="C40" s="18">
+        <f t="shared" si="0"/>
+        <v>-21.428571428571416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A41" s="3">
+        <v>28</v>
+      </c>
+      <c r="B41" s="12">
+        <f>IF(A41&lt;=steps_left,B40+time_increment_left,B40+time_increment_right)</f>
+        <v>2.4285714285714279</v>
+      </c>
+      <c r="C41" s="18">
+        <f t="shared" si="0"/>
+        <v>-22.857142857142847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A42" s="3">
+        <v>29</v>
+      </c>
+      <c r="B42" s="12">
+        <f>IF(A42&lt;=steps_left,B41+time_increment_left,B41+time_increment_right)</f>
+        <v>2.5178571428571423</v>
+      </c>
+      <c r="C42" s="18">
+        <f t="shared" si="0"/>
+        <v>-24.285714285714278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A43" s="3">
+        <v>30</v>
+      </c>
+      <c r="B43" s="12">
+        <f>IF(A43&lt;=steps_left,B42+time_increment_left,B42+time_increment_right)</f>
+        <v>2.6071428571428568</v>
+      </c>
+      <c r="C43" s="18">
+        <f t="shared" si="0"/>
+        <v>-25.714285714285708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A44" s="3">
+        <v>31</v>
+      </c>
+      <c r="B44" s="12">
+        <f>IF(A44&lt;=steps_left,B43+time_increment_left,B43+time_increment_right)</f>
+        <v>2.6964285714285712</v>
+      </c>
+      <c r="C44" s="18">
+        <f t="shared" si="0"/>
+        <v>-27.142857142857139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A45" s="3">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12">
+        <f>IF(A45&lt;=steps_left,B44+time_increment_left,B44+time_increment_right)</f>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="C45" s="19">
+        <f t="shared" si="0"/>
+        <v>-28.571428571428569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A077F-AEFD-4260-A79F-9A1EA02DF3C5}">
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.1875</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.28125</v>
+      </c>
+      <c r="D6">
+        <v>7.5</v>
+      </c>
+      <c r="E6">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.375</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.453125</v>
+      </c>
+      <c r="D8">
+        <v>8.75</v>
+      </c>
+      <c r="E8">
+        <v>0.375</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.53125</v>
+      </c>
+      <c r="D9">
+        <v>7.5</v>
+      </c>
+      <c r="E9">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F9">
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.609375</v>
+      </c>
+      <c r="D10">
+        <v>6.25</v>
+      </c>
+      <c r="E10">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="F10">
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.6875</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="F11">
+        <v>5.7142857142857135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.765625</v>
+      </c>
+      <c r="D12">
+        <v>3.75</v>
+      </c>
+      <c r="E12">
+        <v>0.73214285714285721</v>
+      </c>
+      <c r="F12">
+        <v>4.2857142857142847</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.84375</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>0.82142857142857151</v>
+      </c>
+      <c r="F13">
+        <v>2.8571428571428559</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.921875</v>
+      </c>
+      <c r="D14">
+        <v>1.25</v>
+      </c>
+      <c r="E14">
+        <v>0.91071428571428581</v>
+      </c>
+      <c r="F14">
+        <v>1.428571428571427</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>

--- a/tool/ynyc_prism/assets/equation.xlsx
+++ b/tool/ynyc_prism/assets/equation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rcfdtools\tool\ynyc_prism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A10D1-6595-4776-AB5A-D806F8B09FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C63D6F-BD0F-4706-A656-8B0F3CBFC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="3" xr2:uid="{C62BD3FA-92D6-4485-B482-CE1678DC2BED}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="YnYc" sheetId="2" r:id="rId2"/>
     <sheet name="UHv1" sheetId="3" r:id="rId3"/>
     <sheet name="UHv2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="alpha">YnYc!$C$9</definedName>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Q</t>
   </si>
@@ -203,15 +202,6 @@
             qt = q - (tsa - tp) * hydrograph_slope_right
         hydrograph_table += f'{i}, {round(tsa, dp)}, {round(qt, dp)}\n'
     return  hydrograph_table</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Time (hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flow (m³/s)</t>
   </si>
 </sst>
 </file>
@@ -1382,978 +1372,7 @@
         <c:axId val="728086351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UHv2'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (hr)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728071471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="728071471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UHv2'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="728086351"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Flow (m³/s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$3:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.453125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.609375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.765625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.921875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$D$3:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54DE-4291-A25C-B2C76E57FA09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1371135216"/>
-        <c:axId val="159818496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1371135216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="159818496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="159818496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1371135216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>'UHv2'!$B$2</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Distributed flow with a triangular unitary hydrograph (UH)</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11285209401585562"/>
-          <c:y val="0.17420171946413979"/>
-          <c:w val="0.84791594799268155"/>
-          <c:h val="0.65741565473409036"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UHv2'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UHv2'!$B$13:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4642857142857143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5535714285714286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.73214285714285721</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82142857142857151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91071428571428581</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0892857142857142</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1785714285714284</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2678571428571426</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3571428571428568</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.446428571428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5357142857142851</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6249999999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.7142857142857135</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.8035714285714277</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.8928571428571419</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9821428571428561</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0714285714285703</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1607142857142847</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2499999999999991</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.3392857142857135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.4285714285714279</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.5178571428571423</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.6071428571428568</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.6964285714285712</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.7857142857142856</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UHv2'!$C$13:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>8.5714285714285712</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>7.1428571428571423</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>5.7142857142857135</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>4.2857142857142847</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>2.8571428571428559</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>1.428571428571427</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>-1.428571428571427</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>-2.8571428571428541</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>-4.2857142857142811</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>-5.7142857142857082</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>-7.1428571428571352</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>-8.5714285714285623</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>-9.9999999999999893</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>-11.428571428571416</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>-12.857142857142843</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>-14.28571428571427</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>-15.714285714285698</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>-17.142857142857125</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>-18.571428571428555</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>-19.999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>-21.428571428571416</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>-22.857142857142847</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00">
-                  <c:v>-24.285714285714278</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00">
-                  <c:v>-25.714285714285708</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00">
-                  <c:v>-27.142857142857139</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00">
-                  <c:v>-28.571428571428569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3699-42AE-B16A-1C79BC1346C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="728086351"/>
-        <c:axId val="728071471"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="728086351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2640,86 +1659,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3791,1038 +2730,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -7236,85 +5143,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>73818</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>111918</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77594262-03EE-9191-C289-42A8E2C4A7FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>596873</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71707</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50191D9-0180-43BD-9E01-44C6BC70CED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8483,7 +6311,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -9062,252 +6890,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A077F-AEFD-4260-A79F-9A1EA02DF3C5}">
-  <dimension ref="B2:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9.375E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.5</v>
-      </c>
-      <c r="E4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0.1875</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0.28125</v>
-      </c>
-      <c r="D6">
-        <v>7.5</v>
-      </c>
-      <c r="E6">
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0.375</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0.453125</v>
-      </c>
-      <c r="D8">
-        <v>8.75</v>
-      </c>
-      <c r="E8">
-        <v>0.375</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0.53125</v>
-      </c>
-      <c r="D9">
-        <v>7.5</v>
-      </c>
-      <c r="E9">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="F9">
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>0.609375</v>
-      </c>
-      <c r="D10">
-        <v>6.25</v>
-      </c>
-      <c r="E10">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="F10">
-        <v>7.1428571428571423</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>0.6875</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="F11">
-        <v>5.7142857142857135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0.765625</v>
-      </c>
-      <c r="D12">
-        <v>3.75</v>
-      </c>
-      <c r="E12">
-        <v>0.73214285714285721</v>
-      </c>
-      <c r="F12">
-        <v>4.2857142857142847</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>0.84375</v>
-      </c>
-      <c r="D13">
-        <v>2.5</v>
-      </c>
-      <c r="E13">
-        <v>0.82142857142857151</v>
-      </c>
-      <c r="F13">
-        <v>2.8571428571428559</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0.921875</v>
-      </c>
-      <c r="D14">
-        <v>1.25</v>
-      </c>
-      <c r="E14">
-        <v>0.91071428571428581</v>
-      </c>
-      <c r="F14">
-        <v>1.428571428571427</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>